--- a/Tables/PERMANOVA_PCO_biomass_met.xlsx
+++ b/Tables/PERMANOVA_PCO_biomass_met.xlsx
@@ -118,19 +118,19 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28100591642155814</v>
+        <v>0.3182284544954106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28100591642155814</v>
+        <v>0.3182284544954106</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1973669362389592</v>
+        <v>1.2472852808878423</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00813443175758449</v>
+        <v>0.008470684389926307</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2831</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="3">
@@ -141,16 +141,16 @@
         <v>146.0</v>
       </c>
       <c r="C3" t="n">
-        <v>34.26423643066067</v>
+        <v>37.24998207567866</v>
       </c>
       <c r="D3" t="n">
-        <v>0.23468655089493606</v>
+        <v>0.2551368635320456</v>
       </c>
       <c r="E3" t="e">
         <v>#N/A</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9918655682424156</v>
+        <v>0.9915293156100736</v>
       </c>
       <c r="G3" t="e">
         <v>#N/A</v>
@@ -164,7 +164,7 @@
         <v>147.0</v>
       </c>
       <c r="C4" t="n">
-        <v>34.54524234708222</v>
+        <v>37.56821053017407</v>
       </c>
       <c r="D4" t="e">
         <v>#N/A</v>

--- a/Tables/PERMANOVA_PCO_biomass_met.xlsx
+++ b/Tables/PERMANOVA_PCO_biomass_met.xlsx
@@ -386,19 +386,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.319659381154179</v>
+        <v>0.22914666016441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.319659381154179</v>
+        <v>0.22914666016441</v>
       </c>
       <c r="D2" t="n">
-        <v>1.25176822967504</v>
+        <v>1.15476288483359</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00850087061584619</v>
+        <v>0.00784726815629703</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2612</v>
+        <v>0.3225</v>
       </c>
     </row>
     <row r="3">
@@ -406,14 +406,14 @@
         <v>146</v>
       </c>
       <c r="B3" t="n">
-        <v>37.2834751211299</v>
+        <v>28.9716727333378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.255366267952944</v>
+        <v>0.198436114611902</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.991499129384154</v>
+        <v>0.992152731843703</v>
       </c>
       <c r="F3"/>
     </row>
@@ -422,7 +422,7 @@
         <v>147</v>
       </c>
       <c r="B4" t="n">
-        <v>37.6031345022841</v>
+        <v>29.2008193935022</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
